--- a/dataRange.xlsx
+++ b/dataRange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA100D4-6E66-43B0-8555-9C1AFF626B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0CCD9-A143-4220-8E35-0A5E59F643B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24810" windowHeight="14620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,7 +1304,7 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
